--- a/acp_data/ACP_demographics.xlsx
+++ b/acp_data/ACP_demographics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fashaikh\Desktop\Thesis_main\thesis\acp_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34D0B51-4957-4255-9B2A-2CCB2851933B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B25C150-57A1-4FA8-8264-3DB1272EEC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" xr2:uid="{8C7D8BF4-A9DB-4A43-8827-78BF777DCEBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="176">
   <si>
     <t>Community</t>
   </si>
@@ -116,27 +116,15 @@
     <t>Air Pollution - Particulate Matter</t>
   </si>
   <si>
-    <t>Child Care Centers</t>
-  </si>
-  <si>
     <t>Driving Alone to Work</t>
   </si>
   <si>
-    <t>Food Environment Index</t>
-  </si>
-  <si>
     <t>Food Insecurity</t>
   </si>
   <si>
     <t>Limited Access to Healthy Foods</t>
   </si>
   <si>
-    <t>Long Commute - Driving Alone</t>
-  </si>
-  <si>
-    <t>Traffic Volume</t>
-  </si>
-  <si>
     <t>% Non-Hispanic Black</t>
   </si>
   <si>
@@ -564,6 +552,18 @@
   </si>
   <si>
     <t>Unemployment</t>
+  </si>
+  <si>
+    <t>Child Care Centers (Number of child care centers per 1,000 population under 5 years old)</t>
+  </si>
+  <si>
+    <t>Food Environment Index (Index of factors that contribute to a healthy food environment, from 0 (worst) to 10 (best))</t>
+  </si>
+  <si>
+    <t>Long Commute - Driving Alone (Among workers who commute in their car alone, the percentage that commute more than 30 minutes)</t>
+  </si>
+  <si>
+    <t>Traffic Volume (Average traffic volume per meter of major roadways in the county)</t>
   </si>
 </sst>
 </file>
@@ -571,9 +571,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,16 +588,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -605,17 +633,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,106 +1008,106 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70842136-E1EB-4F6D-923C-9FA760336763}" name="Table1" displayName="Table1" ref="A2:CS18" totalsRowShown="0" headerRowDxfId="98" dataDxfId="0" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70842136-E1EB-4F6D-923C-9FA760336763}" name="Table1" displayName="Table1" ref="A2:CS18" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A2:CS18" xr:uid="{70842136-E1EB-4F6D-923C-9FA760336763}"/>
   <tableColumns count="97">
-    <tableColumn id="1" xr3:uid="{976F70A3-50FA-4EDC-A3C9-DCC35B334983}" name="Community" dataDxfId="97" dataCellStyle="Normal 2"/>
-    <tableColumn id="9" xr3:uid="{412EE10B-AEA3-4BC5-89D7-4FBC69F6D590}" name="Access to Exercise Opportunities" dataDxfId="96" dataCellStyle="Normal 2"/>
-    <tableColumn id="10" xr3:uid="{C1FDFE14-0E84-4372-BC05-045F5944C26A}" name="Air Pollution - Particulate Matter" dataDxfId="95" dataCellStyle="Normal 2"/>
-    <tableColumn id="11" xr3:uid="{4F5E074A-230F-4307-8418-0C2CB63DD1C8}" name="Child Care Centers" dataDxfId="94" dataCellStyle="Normal 2"/>
-    <tableColumn id="12" xr3:uid="{DF163B43-F390-4FCE-B008-FF33DE1EAE60}" name="Driving Alone to Work" dataDxfId="93" dataCellStyle="Normal 2"/>
-    <tableColumn id="13" xr3:uid="{2CE38730-0597-4852-9BDC-30165F867F06}" name="Food Environment Index" dataDxfId="92" dataCellStyle="Normal 2"/>
-    <tableColumn id="14" xr3:uid="{FA34E74C-EE3A-4BAF-9122-9547F8AB60FC}" name="Food Insecurity" dataDxfId="91" dataCellStyle="Normal 2"/>
-    <tableColumn id="15" xr3:uid="{78A8326A-345C-48BC-8E47-AA450E3DB83F}" name="Limited Access to Healthy Foods" dataDxfId="90" dataCellStyle="Normal 2"/>
-    <tableColumn id="16" xr3:uid="{7E11CAB3-66EB-495F-BA67-FAC63DF315E1}" name="Long Commute - Driving Alone" dataDxfId="89" dataCellStyle="Normal 2"/>
-    <tableColumn id="17" xr3:uid="{CA0B5FE4-BB87-4669-ADF4-E1F144B8A301}" name="Traffic Volume" dataDxfId="88" dataCellStyle="Normal 2"/>
-    <tableColumn id="18" xr3:uid="{5F1805E2-039D-4F6E-B53A-EB5EB595ACEC}" name="% 65 and Older" dataDxfId="87" dataCellStyle="Normal 2"/>
-    <tableColumn id="19" xr3:uid="{0233B938-5F03-4DAB-A694-7CAA5C79341E}" name="% American Indian or Alaska Native" dataDxfId="86" dataCellStyle="Normal 2"/>
-    <tableColumn id="20" xr3:uid="{C2065D22-B6C3-4C44-BA11-964609152D88}" name="% Asian" dataDxfId="85" dataCellStyle="Normal 2"/>
-    <tableColumn id="21" xr3:uid="{BFDF63BA-033C-4A69-9191-2801CF3F9EF4}" name="% Below 18 Years of Age" dataDxfId="84" dataCellStyle="Normal 2"/>
-    <tableColumn id="22" xr3:uid="{1FBB6F93-6C2C-4506-AB2E-AD9A76FF7A45}" name="% Female" dataDxfId="83" dataCellStyle="Normal 2"/>
-    <tableColumn id="23" xr3:uid="{3A17D550-B2BF-459F-9D4B-BE2C84A01812}" name="% Hispanic" dataDxfId="82" dataCellStyle="Normal 2"/>
-    <tableColumn id="24" xr3:uid="{FB15DF57-F253-441C-B21E-659277503486}" name="% Native Hawaiian or Other Pacific Islander" dataDxfId="81" dataCellStyle="Normal 2"/>
-    <tableColumn id="25" xr3:uid="{FAAF7A35-E884-4919-905B-411876DC431B}" name="% Non-Hispanic Black" dataDxfId="80" dataCellStyle="Normal 2"/>
-    <tableColumn id="26" xr3:uid="{55091723-CEAC-4F94-A526-34B4B6C12200}" name="% Non-Hispanic White" dataDxfId="79" dataCellStyle="Normal 2"/>
-    <tableColumn id="27" xr3:uid="{D8602555-6317-4628-B317-8897BD4EDF92}" name="% Not Proficient in English" dataDxfId="78" dataCellStyle="Normal 2"/>
-    <tableColumn id="28" xr3:uid="{CA8152A0-F5F6-4CC1-B7BD-FE17B9B7B6DE}" name="% Rural" dataDxfId="77" dataCellStyle="Normal 2"/>
-    <tableColumn id="29" xr3:uid="{9FABCF12-8B01-4D02-831B-0561D2B300FA}" name="Bachelor's degree" dataDxfId="76" dataCellStyle="Normal 2"/>
-    <tableColumn id="30" xr3:uid="{01797BA1-4AE3-4347-B6C4-D7E49FDF2804}" name="Census Participation" dataDxfId="75" dataCellStyle="Normal 2"/>
-    <tableColumn id="31" xr3:uid="{8E59674C-603B-44B8-A9CB-4F3C1176378D}" name="High School Completion" dataDxfId="74" dataCellStyle="Normal 2"/>
-    <tableColumn id="32" xr3:uid="{F67B18D4-78F9-45E6-9DCE-D5E04781B741}" name="High School Graduation" dataDxfId="73" dataCellStyle="Normal 2"/>
-    <tableColumn id="33" xr3:uid="{08534355-C738-4B10-AB25-DB3010E29C49}" name="Math Scores" dataDxfId="72" dataCellStyle="Normal 2"/>
-    <tableColumn id="34" xr3:uid="{59BEB240-6E45-432D-9409-F103E328EE9B}" name="Population Medians" dataDxfId="71" dataCellStyle="Normal 2"/>
-    <tableColumn id="35" xr3:uid="{E024D581-55C8-4C60-8D7C-0F125460CDEF}" name="Reading Scores" dataDxfId="70" dataCellStyle="Normal 2"/>
-    <tableColumn id="36" xr3:uid="{1E570025-A38E-4379-9BC0-D0A79827EB9A}" name="School Funding Adequacy" dataDxfId="69" dataCellStyle="Normal 2"/>
-    <tableColumn id="37" xr3:uid="{F672CEB6-B7EA-49E9-8CA1-D177C0525273}" name="School Segregation" dataDxfId="68" dataCellStyle="Normal 2"/>
-    <tableColumn id="38" xr3:uid="{B82583E4-282B-4BF9-BA0E-F7554D01C41C}" name="Total Population" dataDxfId="67" dataCellStyle="Normal 2"/>
-    <tableColumn id="39" xr3:uid="{EEBF515F-4CDC-4EE8-8769-50B3FB365B31}" name="Adult Obesity" dataDxfId="66" dataCellStyle="Normal 2"/>
-    <tableColumn id="40" xr3:uid="{A2D80E30-646B-4789-A956-744FBC8E87D6}" name="Adult Smoking" dataDxfId="65" dataCellStyle="Normal 2"/>
-    <tableColumn id="41" xr3:uid="{3FEAA24E-EE44-4E21-9D37-3DBA94F6F4B2}" name="Alcohol-Impaired Driving Deaths" dataDxfId="64" dataCellStyle="Normal 2"/>
-    <tableColumn id="42" xr3:uid="{E90A83FD-3A79-4707-AF6C-58615CA4A299}" name="Child Mortality" dataDxfId="63" dataCellStyle="Normal 2"/>
-    <tableColumn id="43" xr3:uid="{A5C7CFC7-8633-4632-A87F-0B0F1864A90F}" name="Dentists" dataDxfId="62" dataCellStyle="Normal 2"/>
-    <tableColumn id="44" xr3:uid="{0559A575-B119-473A-84AB-40433BEB8780}" name="Diabetes Prevalence" dataDxfId="61" dataCellStyle="Normal 2"/>
-    <tableColumn id="45" xr3:uid="{77D9C710-0B50-4347-AFD9-788B42E57FAA}" name="Drug Overdose Deaths" dataDxfId="60" dataCellStyle="Normal 2"/>
-    <tableColumn id="46" xr3:uid="{B54283D3-FF8E-4A75-8205-365D8608D52E}" name="Excessive Drinking" dataDxfId="59" dataCellStyle="Normal 2"/>
-    <tableColumn id="47" xr3:uid="{C3C2D01B-0AB6-4F05-9980-41B122902EF2}" name="Firearm Fatalities" dataDxfId="58" dataCellStyle="Normal 2"/>
-    <tableColumn id="48" xr3:uid="{672582E4-5C77-4295-980B-5073FE15C639}" name="Flu Vaccinations" dataDxfId="57" dataCellStyle="Normal 2"/>
-    <tableColumn id="49" xr3:uid="{681E039B-A902-4BE9-9AF8-F70A058A1D0F}" name="Frequent Mental Distress" dataDxfId="56" dataCellStyle="Normal 2"/>
-    <tableColumn id="50" xr3:uid="{473C9835-1642-4780-B476-29C8842202C4}" name="Frequent Physical Distress" dataDxfId="55" dataCellStyle="Normal 2"/>
-    <tableColumn id="51" xr3:uid="{121BA4C1-9B8A-4904-9A33-E23F6E69FCA4}" name="HIV Prevalence" dataDxfId="54" dataCellStyle="Normal 2"/>
-    <tableColumn id="52" xr3:uid="{9C18F880-A367-4175-BB40-20AECDBEAC7D}" name="Homicides" dataDxfId="53" dataCellStyle="Normal 2"/>
-    <tableColumn id="53" xr3:uid="{457C4EAD-B202-48EF-8929-11676EB420E2}" name="Infant Mortality" dataDxfId="52" dataCellStyle="Normal 2"/>
-    <tableColumn id="54" xr3:uid="{D0E02B10-20B5-471F-86AD-F21689516400}" name="Injury Deaths" dataDxfId="51" dataCellStyle="Normal 2"/>
-    <tableColumn id="55" xr3:uid="{7D82F249-E445-4265-932A-2D2CC8E6B12C}" name="Insufficient Sleep" dataDxfId="50" dataCellStyle="Normal 2"/>
-    <tableColumn id="56" xr3:uid="{27AFAF18-6188-4040-AFE7-D39697E880EA}" name="Life Expectancy" dataDxfId="49" dataCellStyle="Normal 2"/>
-    <tableColumn id="57" xr3:uid="{AA7E9950-8263-4222-A4D1-4914BA1B2A70}" name="Low Birthweight" dataDxfId="48" dataCellStyle="Normal 2"/>
-    <tableColumn id="58" xr3:uid="{DFEB0F21-D85D-4518-BC83-8EA9EF90E499}" name="Mammography Screening" dataDxfId="47" dataCellStyle="Normal 2"/>
-    <tableColumn id="59" xr3:uid="{AF564727-BD89-4753-82F0-7D0825FB675B}" name="Mental Health Providers" dataDxfId="46" dataCellStyle="Normal 2"/>
-    <tableColumn id="60" xr3:uid="{94EF03EE-D16B-470E-9C99-4636A0066127}" name="Motor Vehicle Crash Deaths" dataDxfId="45" dataCellStyle="Normal 2"/>
-    <tableColumn id="61" xr3:uid="{EFAB84DE-B18F-444E-998A-D405E97A292B}" name="Physical Inactivity" dataDxfId="44" dataCellStyle="Normal 2"/>
-    <tableColumn id="62" xr3:uid="{9F397486-03DB-41D1-8AD4-0D4FB0E978F4}" name="Poor Mental Health Days" dataDxfId="43" dataCellStyle="Normal 2"/>
-    <tableColumn id="63" xr3:uid="{55974FDF-38D1-43F4-9CC9-55F283DB9918}" name="Poor or Fair Health" dataDxfId="42" dataCellStyle="Normal 2"/>
-    <tableColumn id="64" xr3:uid="{CAF66932-3B9C-4539-9358-1CFC1A744EEA}" name="Poor Physical Health Days" dataDxfId="41" dataCellStyle="Normal 2"/>
-    <tableColumn id="65" xr3:uid="{C40A1A8E-8E63-46F3-A093-8E778439BA9B}" name="Premature Age-Adjusted Mortality" dataDxfId="40" dataCellStyle="Normal 2"/>
-    <tableColumn id="66" xr3:uid="{3A943398-BB64-499A-866A-54DD218A8D0E}" name="Premature Death" dataDxfId="39" dataCellStyle="Normal 2"/>
-    <tableColumn id="67" xr3:uid="{18C731D6-4C2E-4980-8863-CC3C5E1FDFC6}" name="Preventable Hospital Stays" dataDxfId="38" dataCellStyle="Normal 2"/>
-    <tableColumn id="68" xr3:uid="{92BCF3FD-46FE-4EA8-8308-93B7F4674F53}" name="Primary Care Physicians" dataDxfId="37" dataCellStyle="Normal 2"/>
-    <tableColumn id="69" xr3:uid="{44D86B68-F8D2-4B35-A3E6-A5004A580006}" name="Sexually Transmitted Infections" dataDxfId="36" dataCellStyle="Normal 2"/>
-    <tableColumn id="70" xr3:uid="{9A20609D-2234-42BC-9656-5DEA91167DBD}" name="Suicides" dataDxfId="35" dataCellStyle="Normal 2"/>
-    <tableColumn id="71" xr3:uid="{AA1F10AC-3186-43A8-A0D6-74D8499DE69B}" name="Teen Births" dataDxfId="34" dataCellStyle="Normal 2"/>
-    <tableColumn id="72" xr3:uid="{28CEED02-A47B-4CD1-9948-4C8284BC0695}" name="Uninsured Adults" dataDxfId="33" dataCellStyle="Normal 2"/>
-    <tableColumn id="73" xr3:uid="{DBAC840F-3EC8-486B-8A3A-E4777CAF378B}" name="Uninsured Children" dataDxfId="32" dataCellStyle="Normal 2"/>
-    <tableColumn id="74" xr3:uid="{84244341-CAB3-4B34-AE75-0E3D8F6D10DA}" name="Uninsured" dataDxfId="31" dataCellStyle="Normal 2"/>
-    <tableColumn id="75" xr3:uid="{970AD7BE-31EE-4D73-B335-7A3643446158}" name="Broadband Access" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="76" xr3:uid="{38211E50-1293-472C-83FA-7FB92C067FEB}" name="2000 (D) Al Gore" dataDxfId="29" dataCellStyle="Normal 2"/>
-    <tableColumn id="77" xr3:uid="{501FD35D-AF9C-4FC9-A356-B6C5EB9F25DC}" name="2000 (R) George W. Bush" dataDxfId="28" dataCellStyle="Normal 2"/>
-    <tableColumn id="78" xr3:uid="{F313ACF5-0318-4CB1-8FAA-01002796D51E}" name="2004 (D) John Kerry" dataDxfId="27" dataCellStyle="Normal 2"/>
-    <tableColumn id="79" xr3:uid="{2223A1D8-0776-426F-AA23-E87FFB113DBF}" name="2004 (R) George W. Bush" dataDxfId="26" dataCellStyle="Normal 2"/>
-    <tableColumn id="80" xr3:uid="{A9EB0DDE-8976-4D4B-A46F-A2E2455AE827}" name="2008 (D) Barack Obama" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="81" xr3:uid="{6592E644-7E5E-4433-903D-5D819ECB4003}" name="2008 (R) John McCain" dataDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="82" xr3:uid="{B87BE589-AFE0-4EB5-8DD0-63737E66944E}" name="2012 (D) Barack Obama" dataDxfId="23" dataCellStyle="Normal 2"/>
-    <tableColumn id="83" xr3:uid="{A8F7FFA2-F729-4998-962C-8C38B1590676}" name="2012 (R) Mitt Romney" dataDxfId="22" dataCellStyle="Normal 2"/>
-    <tableColumn id="84" xr3:uid="{80962A76-CC14-4489-B74F-D2B536814836}" name="2016 (D) Hillary Clinton" dataDxfId="21" dataCellStyle="Normal 2"/>
-    <tableColumn id="85" xr3:uid="{50192737-1F47-47EE-81C2-C040F46C2E48}" name="2016 (R) Donald Trump" dataDxfId="20" dataCellStyle="Normal 2"/>
-    <tableColumn id="86" xr3:uid="{CBEB94B7-3955-4F76-8140-FE325CB7D2B1}" name="2020 (D) Joe Biden" dataDxfId="19" dataCellStyle="Normal 2"/>
-    <tableColumn id="87" xr3:uid="{4E8677C2-69C2-4739-94A8-A753860ADB57}" name="2020 (R) Donald Trump" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="88" xr3:uid="{3A554945-50FA-4B1B-9BB9-E53821225852}" name="Voter Turnout" dataDxfId="17" dataCellStyle="Normal 2"/>
-    <tableColumn id="89" xr3:uid="{BFE587D7-C973-4FBB-BDE3-57941C1EFC8C}" name="Child Care Cost Burden" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="90" xr3:uid="{D7C558BB-55B6-4074-B881-C5AD6468736C}" name="Children Eligible for Free or Reduced Price Lunch" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="91" xr3:uid="{E66A99DF-DB06-405B-8B86-55C8192BCCB7}" name="Children in Poverty" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="92" xr3:uid="{19F26A4C-D910-4C20-83EC-38B34E31789F}" name="Children in Single-Parent Households" dataDxfId="13" dataCellStyle="Normal 2"/>
-    <tableColumn id="93" xr3:uid="{49B2B00F-0848-4114-8AC7-6E8D67CA94EA}" name="Disconnected Youth" dataDxfId="12" dataCellStyle="Normal 2"/>
-    <tableColumn id="94" xr3:uid="{146C469B-2737-4B1B-8294-B7C838600D85}" name="Gender Pay Gap" dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="95" xr3:uid="{4F6B03B7-6B3C-47CA-BEB2-06BD9617CC68}" name="Homeownership" dataDxfId="10" dataCellStyle="Normal 2"/>
-    <tableColumn id="96" xr3:uid="{1ADA6207-A276-480A-BB1B-6EFB2036655B}" name="Income Inequality" dataDxfId="9" dataCellStyle="Normal 2"/>
-    <tableColumn id="97" xr3:uid="{0A6A5230-9EE8-4A5B-B791-0F68BDB69B0F}" name="Juvenile Arrests" dataDxfId="8" dataCellStyle="Normal 2"/>
-    <tableColumn id="98" xr3:uid="{866E9F85-4AF4-485A-A307-4AFFB1DAFCF2}" name="Living Wage" dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="99" xr3:uid="{B0DED9B2-1FDD-4CC2-96CD-10A425C5C0F6}" name="Median Household Income" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="100" xr3:uid="{882A870B-DC48-47D2-8EF6-C96504D0889F}" name="Residential Segregation - Black/White" dataDxfId="5" dataCellStyle="Normal 2"/>
-    <tableColumn id="101" xr3:uid="{88E8DBE7-8B5D-4CA0-A079-ED6E4E68258E}" name="Severe Housing Cost Burden" dataDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="102" xr3:uid="{F4364852-F886-4485-BC1D-557C09E66E83}" name="Severe Housing Problems" dataDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="103" xr3:uid="{B1E253DF-997F-4985-B101-4FB99106C06C}" name="Social Associations" dataDxfId="2" dataCellStyle="Normal 2"/>
-    <tableColumn id="104" xr3:uid="{9C86BDB0-3FAC-4391-9356-F2EB13FB7F2C}" name="Unemployment" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{976F70A3-50FA-4EDC-A3C9-DCC35B334983}" name="Community" dataDxfId="96" dataCellStyle="Normal 2"/>
+    <tableColumn id="9" xr3:uid="{412EE10B-AEA3-4BC5-89D7-4FBC69F6D590}" name="Access to Exercise Opportunities" dataDxfId="95" dataCellStyle="Normal 2"/>
+    <tableColumn id="10" xr3:uid="{C1FDFE14-0E84-4372-BC05-045F5944C26A}" name="Air Pollution - Particulate Matter" dataDxfId="94" dataCellStyle="Normal 2"/>
+    <tableColumn id="11" xr3:uid="{4F5E074A-230F-4307-8418-0C2CB63DD1C8}" name="Child Care Centers (Number of child care centers per 1,000 population under 5 years old)" dataDxfId="93" dataCellStyle="Normal 2"/>
+    <tableColumn id="12" xr3:uid="{DF163B43-F390-4FCE-B008-FF33DE1EAE60}" name="Driving Alone to Work" dataDxfId="92" dataCellStyle="Normal 2"/>
+    <tableColumn id="13" xr3:uid="{2CE38730-0597-4852-9BDC-30165F867F06}" name="Food Environment Index (Index of factors that contribute to a healthy food environment, from 0 (worst) to 10 (best))" dataDxfId="91" dataCellStyle="Normal 2"/>
+    <tableColumn id="14" xr3:uid="{FA34E74C-EE3A-4BAF-9122-9547F8AB60FC}" name="Food Insecurity" dataDxfId="90" dataCellStyle="Normal 2"/>
+    <tableColumn id="15" xr3:uid="{78A8326A-345C-48BC-8E47-AA450E3DB83F}" name="Limited Access to Healthy Foods" dataDxfId="89" dataCellStyle="Normal 2"/>
+    <tableColumn id="16" xr3:uid="{7E11CAB3-66EB-495F-BA67-FAC63DF315E1}" name="Long Commute - Driving Alone (Among workers who commute in their car alone, the percentage that commute more than 30 minutes)" dataDxfId="88" dataCellStyle="Normal 2"/>
+    <tableColumn id="17" xr3:uid="{CA0B5FE4-BB87-4669-ADF4-E1F144B8A301}" name="Traffic Volume (Average traffic volume per meter of major roadways in the county)" dataDxfId="87" dataCellStyle="Normal 2"/>
+    <tableColumn id="18" xr3:uid="{5F1805E2-039D-4F6E-B53A-EB5EB595ACEC}" name="% 65 and Older" dataDxfId="86" dataCellStyle="Normal 2"/>
+    <tableColumn id="19" xr3:uid="{0233B938-5F03-4DAB-A694-7CAA5C79341E}" name="% American Indian or Alaska Native" dataDxfId="85" dataCellStyle="Normal 2"/>
+    <tableColumn id="20" xr3:uid="{C2065D22-B6C3-4C44-BA11-964609152D88}" name="% Asian" dataDxfId="84" dataCellStyle="Normal 2"/>
+    <tableColumn id="21" xr3:uid="{BFDF63BA-033C-4A69-9191-2801CF3F9EF4}" name="% Below 18 Years of Age" dataDxfId="83" dataCellStyle="Normal 2"/>
+    <tableColumn id="22" xr3:uid="{1FBB6F93-6C2C-4506-AB2E-AD9A76FF7A45}" name="% Female" dataDxfId="82" dataCellStyle="Normal 2"/>
+    <tableColumn id="23" xr3:uid="{3A17D550-B2BF-459F-9D4B-BE2C84A01812}" name="% Hispanic" dataDxfId="81" dataCellStyle="Normal 2"/>
+    <tableColumn id="24" xr3:uid="{FB15DF57-F253-441C-B21E-659277503486}" name="% Native Hawaiian or Other Pacific Islander" dataDxfId="80" dataCellStyle="Normal 2"/>
+    <tableColumn id="25" xr3:uid="{FAAF7A35-E884-4919-905B-411876DC431B}" name="% Non-Hispanic Black" dataDxfId="79" dataCellStyle="Normal 2"/>
+    <tableColumn id="26" xr3:uid="{55091723-CEAC-4F94-A526-34B4B6C12200}" name="% Non-Hispanic White" dataDxfId="78" dataCellStyle="Normal 2"/>
+    <tableColumn id="27" xr3:uid="{D8602555-6317-4628-B317-8897BD4EDF92}" name="% Not Proficient in English" dataDxfId="77" dataCellStyle="Normal 2"/>
+    <tableColumn id="28" xr3:uid="{CA8152A0-F5F6-4CC1-B7BD-FE17B9B7B6DE}" name="% Rural" dataDxfId="76" dataCellStyle="Normal 2"/>
+    <tableColumn id="29" xr3:uid="{9FABCF12-8B01-4D02-831B-0561D2B300FA}" name="Bachelor's degree" dataDxfId="75" dataCellStyle="Normal 2"/>
+    <tableColumn id="30" xr3:uid="{01797BA1-4AE3-4347-B6C4-D7E49FDF2804}" name="Census Participation" dataDxfId="74" dataCellStyle="Normal 2"/>
+    <tableColumn id="31" xr3:uid="{8E59674C-603B-44B8-A9CB-4F3C1176378D}" name="High School Completion" dataDxfId="73" dataCellStyle="Normal 2"/>
+    <tableColumn id="32" xr3:uid="{F67B18D4-78F9-45E6-9DCE-D5E04781B741}" name="High School Graduation" dataDxfId="72" dataCellStyle="Normal 2"/>
+    <tableColumn id="33" xr3:uid="{08534355-C738-4B10-AB25-DB3010E29C49}" name="Math Scores" dataDxfId="71" dataCellStyle="Normal 2"/>
+    <tableColumn id="34" xr3:uid="{59BEB240-6E45-432D-9409-F103E328EE9B}" name="Population Medians" dataDxfId="70" dataCellStyle="Normal 2"/>
+    <tableColumn id="35" xr3:uid="{E024D581-55C8-4C60-8D7C-0F125460CDEF}" name="Reading Scores" dataDxfId="69" dataCellStyle="Normal 2"/>
+    <tableColumn id="36" xr3:uid="{1E570025-A38E-4379-9BC0-D0A79827EB9A}" name="School Funding Adequacy" dataDxfId="68" dataCellStyle="Normal 2"/>
+    <tableColumn id="37" xr3:uid="{F672CEB6-B7EA-49E9-8CA1-D177C0525273}" name="School Segregation" dataDxfId="67" dataCellStyle="Normal 2"/>
+    <tableColumn id="38" xr3:uid="{B82583E4-282B-4BF9-BA0E-F7554D01C41C}" name="Total Population" dataDxfId="66" dataCellStyle="Normal 2"/>
+    <tableColumn id="39" xr3:uid="{EEBF515F-4CDC-4EE8-8769-50B3FB365B31}" name="Adult Obesity" dataDxfId="65" dataCellStyle="Normal 2"/>
+    <tableColumn id="40" xr3:uid="{A2D80E30-646B-4789-A956-744FBC8E87D6}" name="Adult Smoking" dataDxfId="64" dataCellStyle="Normal 2"/>
+    <tableColumn id="41" xr3:uid="{3FEAA24E-EE44-4E21-9D37-3DBA94F6F4B2}" name="Alcohol-Impaired Driving Deaths" dataDxfId="63" dataCellStyle="Normal 2"/>
+    <tableColumn id="42" xr3:uid="{E90A83FD-3A79-4707-AF6C-58615CA4A299}" name="Child Mortality" dataDxfId="62" dataCellStyle="Normal 2"/>
+    <tableColumn id="43" xr3:uid="{A5C7CFC7-8633-4632-A87F-0B0F1864A90F}" name="Dentists" dataDxfId="61" dataCellStyle="Normal 2"/>
+    <tableColumn id="44" xr3:uid="{0559A575-B119-473A-84AB-40433BEB8780}" name="Diabetes Prevalence" dataDxfId="60" dataCellStyle="Normal 2"/>
+    <tableColumn id="45" xr3:uid="{77D9C710-0B50-4347-AFD9-788B42E57FAA}" name="Drug Overdose Deaths" dataDxfId="59" dataCellStyle="Normal 2"/>
+    <tableColumn id="46" xr3:uid="{B54283D3-FF8E-4A75-8205-365D8608D52E}" name="Excessive Drinking" dataDxfId="58" dataCellStyle="Normal 2"/>
+    <tableColumn id="47" xr3:uid="{C3C2D01B-0AB6-4F05-9980-41B122902EF2}" name="Firearm Fatalities" dataDxfId="57" dataCellStyle="Normal 2"/>
+    <tableColumn id="48" xr3:uid="{672582E4-5C77-4295-980B-5073FE15C639}" name="Flu Vaccinations" dataDxfId="56" dataCellStyle="Normal 2"/>
+    <tableColumn id="49" xr3:uid="{681E039B-A902-4BE9-9AF8-F70A058A1D0F}" name="Frequent Mental Distress" dataDxfId="55" dataCellStyle="Normal 2"/>
+    <tableColumn id="50" xr3:uid="{473C9835-1642-4780-B476-29C8842202C4}" name="Frequent Physical Distress" dataDxfId="54" dataCellStyle="Normal 2"/>
+    <tableColumn id="51" xr3:uid="{121BA4C1-9B8A-4904-9A33-E23F6E69FCA4}" name="HIV Prevalence" dataDxfId="53" dataCellStyle="Normal 2"/>
+    <tableColumn id="52" xr3:uid="{9C18F880-A367-4175-BB40-20AECDBEAC7D}" name="Homicides" dataDxfId="52" dataCellStyle="Normal 2"/>
+    <tableColumn id="53" xr3:uid="{457C4EAD-B202-48EF-8929-11676EB420E2}" name="Infant Mortality" dataDxfId="51" dataCellStyle="Normal 2"/>
+    <tableColumn id="54" xr3:uid="{D0E02B10-20B5-471F-86AD-F21689516400}" name="Injury Deaths" dataDxfId="50" dataCellStyle="Normal 2"/>
+    <tableColumn id="55" xr3:uid="{7D82F249-E445-4265-932A-2D2CC8E6B12C}" name="Insufficient Sleep" dataDxfId="49" dataCellStyle="Normal 2"/>
+    <tableColumn id="56" xr3:uid="{27AFAF18-6188-4040-AFE7-D39697E880EA}" name="Life Expectancy" dataDxfId="48" dataCellStyle="Normal 2"/>
+    <tableColumn id="57" xr3:uid="{AA7E9950-8263-4222-A4D1-4914BA1B2A70}" name="Low Birthweight" dataDxfId="47" dataCellStyle="Normal 2"/>
+    <tableColumn id="58" xr3:uid="{DFEB0F21-D85D-4518-BC83-8EA9EF90E499}" name="Mammography Screening" dataDxfId="46" dataCellStyle="Normal 2"/>
+    <tableColumn id="59" xr3:uid="{AF564727-BD89-4753-82F0-7D0825FB675B}" name="Mental Health Providers" dataDxfId="45" dataCellStyle="Normal 2"/>
+    <tableColumn id="60" xr3:uid="{94EF03EE-D16B-470E-9C99-4636A0066127}" name="Motor Vehicle Crash Deaths" dataDxfId="44" dataCellStyle="Normal 2"/>
+    <tableColumn id="61" xr3:uid="{EFAB84DE-B18F-444E-998A-D405E97A292B}" name="Physical Inactivity" dataDxfId="43" dataCellStyle="Normal 2"/>
+    <tableColumn id="62" xr3:uid="{9F397486-03DB-41D1-8AD4-0D4FB0E978F4}" name="Poor Mental Health Days" dataDxfId="42" dataCellStyle="Normal 2"/>
+    <tableColumn id="63" xr3:uid="{55974FDF-38D1-43F4-9CC9-55F283DB9918}" name="Poor or Fair Health" dataDxfId="41" dataCellStyle="Normal 2"/>
+    <tableColumn id="64" xr3:uid="{CAF66932-3B9C-4539-9358-1CFC1A744EEA}" name="Poor Physical Health Days" dataDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="65" xr3:uid="{C40A1A8E-8E63-46F3-A093-8E778439BA9B}" name="Premature Age-Adjusted Mortality" dataDxfId="39" dataCellStyle="Normal 2"/>
+    <tableColumn id="66" xr3:uid="{3A943398-BB64-499A-866A-54DD218A8D0E}" name="Premature Death" dataDxfId="38" dataCellStyle="Normal 2"/>
+    <tableColumn id="67" xr3:uid="{18C731D6-4C2E-4980-8863-CC3C5E1FDFC6}" name="Preventable Hospital Stays" dataDxfId="37" dataCellStyle="Normal 2"/>
+    <tableColumn id="68" xr3:uid="{92BCF3FD-46FE-4EA8-8308-93B7F4674F53}" name="Primary Care Physicians" dataDxfId="36" dataCellStyle="Normal 2"/>
+    <tableColumn id="69" xr3:uid="{44D86B68-F8D2-4B35-A3E6-A5004A580006}" name="Sexually Transmitted Infections" dataDxfId="35" dataCellStyle="Normal 2"/>
+    <tableColumn id="70" xr3:uid="{9A20609D-2234-42BC-9656-5DEA91167DBD}" name="Suicides" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="71" xr3:uid="{AA1F10AC-3186-43A8-A0D6-74D8499DE69B}" name="Teen Births" dataDxfId="33" dataCellStyle="Normal 2"/>
+    <tableColumn id="72" xr3:uid="{28CEED02-A47B-4CD1-9948-4C8284BC0695}" name="Uninsured Adults" dataDxfId="32" dataCellStyle="Normal 2"/>
+    <tableColumn id="73" xr3:uid="{DBAC840F-3EC8-486B-8A3A-E4777CAF378B}" name="Uninsured Children" dataDxfId="31" dataCellStyle="Normal 2"/>
+    <tableColumn id="74" xr3:uid="{84244341-CAB3-4B34-AE75-0E3D8F6D10DA}" name="Uninsured" dataDxfId="30" dataCellStyle="Normal 2"/>
+    <tableColumn id="75" xr3:uid="{970AD7BE-31EE-4D73-B335-7A3643446158}" name="Broadband Access" dataDxfId="29" dataCellStyle="Normal 2"/>
+    <tableColumn id="76" xr3:uid="{38211E50-1293-472C-83FA-7FB92C067FEB}" name="2000 (D) Al Gore" dataDxfId="28" dataCellStyle="Normal 2"/>
+    <tableColumn id="77" xr3:uid="{501FD35D-AF9C-4FC9-A356-B6C5EB9F25DC}" name="2000 (R) George W. Bush" dataDxfId="27" dataCellStyle="Normal 2"/>
+    <tableColumn id="78" xr3:uid="{F313ACF5-0318-4CB1-8FAA-01002796D51E}" name="2004 (D) John Kerry" dataDxfId="26" dataCellStyle="Normal 2"/>
+    <tableColumn id="79" xr3:uid="{2223A1D8-0776-426F-AA23-E87FFB113DBF}" name="2004 (R) George W. Bush" dataDxfId="25" dataCellStyle="Normal 2"/>
+    <tableColumn id="80" xr3:uid="{A9EB0DDE-8976-4D4B-A46F-A2E2455AE827}" name="2008 (D) Barack Obama" dataDxfId="24" dataCellStyle="Normal 2"/>
+    <tableColumn id="81" xr3:uid="{6592E644-7E5E-4433-903D-5D819ECB4003}" name="2008 (R) John McCain" dataDxfId="23" dataCellStyle="Normal 2"/>
+    <tableColumn id="82" xr3:uid="{B87BE589-AFE0-4EB5-8DD0-63737E66944E}" name="2012 (D) Barack Obama" dataDxfId="22" dataCellStyle="Normal 2"/>
+    <tableColumn id="83" xr3:uid="{A8F7FFA2-F729-4998-962C-8C38B1590676}" name="2012 (R) Mitt Romney" dataDxfId="21" dataCellStyle="Normal 2"/>
+    <tableColumn id="84" xr3:uid="{80962A76-CC14-4489-B74F-D2B536814836}" name="2016 (D) Hillary Clinton" dataDxfId="20" dataCellStyle="Normal 2"/>
+    <tableColumn id="85" xr3:uid="{50192737-1F47-47EE-81C2-C040F46C2E48}" name="2016 (R) Donald Trump" dataDxfId="19" dataCellStyle="Normal 2"/>
+    <tableColumn id="86" xr3:uid="{CBEB94B7-3955-4F76-8140-FE325CB7D2B1}" name="2020 (D) Joe Biden" dataDxfId="18" dataCellStyle="Normal 2"/>
+    <tableColumn id="87" xr3:uid="{4E8677C2-69C2-4739-94A8-A753860ADB57}" name="2020 (R) Donald Trump" dataDxfId="17" dataCellStyle="Normal 2"/>
+    <tableColumn id="88" xr3:uid="{3A554945-50FA-4B1B-9BB9-E53821225852}" name="Voter Turnout" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="89" xr3:uid="{BFE587D7-C973-4FBB-BDE3-57941C1EFC8C}" name="Child Care Cost Burden" dataDxfId="15" dataCellStyle="Normal 2"/>
+    <tableColumn id="90" xr3:uid="{D7C558BB-55B6-4074-B881-C5AD6468736C}" name="Children Eligible for Free or Reduced Price Lunch" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="91" xr3:uid="{E66A99DF-DB06-405B-8B86-55C8192BCCB7}" name="Children in Poverty" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="92" xr3:uid="{19F26A4C-D910-4C20-83EC-38B34E31789F}" name="Children in Single-Parent Households" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="93" xr3:uid="{49B2B00F-0848-4114-8AC7-6E8D67CA94EA}" name="Disconnected Youth" dataDxfId="11" dataCellStyle="Normal 2"/>
+    <tableColumn id="94" xr3:uid="{146C469B-2737-4B1B-8294-B7C838600D85}" name="Gender Pay Gap" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="95" xr3:uid="{4F6B03B7-6B3C-47CA-BEB2-06BD9617CC68}" name="Homeownership" dataDxfId="9" dataCellStyle="Normal 2"/>
+    <tableColumn id="96" xr3:uid="{1ADA6207-A276-480A-BB1B-6EFB2036655B}" name="Income Inequality" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="97" xr3:uid="{0A6A5230-9EE8-4A5B-B791-0F68BDB69B0F}" name="Juvenile Arrests" dataDxfId="7" dataCellStyle="Normal 2"/>
+    <tableColumn id="98" xr3:uid="{866E9F85-4AF4-485A-A307-4AFFB1DAFCF2}" name="Living Wage" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="99" xr3:uid="{B0DED9B2-1FDD-4CC2-96CD-10A425C5C0F6}" name="Median Household Income" dataDxfId="5" dataCellStyle="Normal 2"/>
+    <tableColumn id="100" xr3:uid="{882A870B-DC48-47D2-8EF6-C96504D0889F}" name="Residential Segregation - Black/White" dataDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="101" xr3:uid="{88E8DBE7-8B5D-4CA0-A079-ED6E4E68258E}" name="Severe Housing Cost Burden" dataDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="102" xr3:uid="{F4364852-F886-4485-BC1D-557C09E66E83}" name="Severe Housing Problems" dataDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="103" xr3:uid="{B1E253DF-997F-4985-B101-4FB99106C06C}" name="Social Associations" dataDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="104" xr3:uid="{9C86BDB0-3FAC-4391-9356-F2EB13FB7F2C}" name="Unemployment" dataDxfId="0" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1335,75 +1410,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0084EFCD-77D3-4B57-867C-7754BE256347}">
-  <dimension ref="A2:CS18"/>
+  <dimension ref="A2:CS38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AC30" sqref="A22:BI38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="29" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="30" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="137.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="29" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1452,25 +1526,25 @@
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
@@ -1494,244 +1568,244 @@
         <v>23</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="AK2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AU2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AW2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="BA2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BF2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="BJ2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BO2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BP2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BQ2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BQ2" s="1" t="s">
+      <c r="BU2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BR2" s="1" t="s">
+      <c r="BV2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BW2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BT2" s="1" t="s">
+      <c r="BX2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BU2" s="1" t="s">
+      <c r="BY2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BV2" s="1" t="s">
+      <c r="BZ2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BW2" s="1" t="s">
+      <c r="CA2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BX2" s="1" t="s">
+      <c r="CB2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BY2" s="1" t="s">
+      <c r="CC2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BZ2" s="1" t="s">
+      <c r="CD2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CA2" s="1" t="s">
+      <c r="CE2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="CF2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="CC2" s="1" t="s">
+      <c r="CG2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="CD2" s="1" t="s">
+      <c r="CH2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="CE2" s="1" t="s">
+      <c r="CI2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="CF2" s="1" t="s">
+      <c r="CJ2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="CG2" s="1" t="s">
+      <c r="CK2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="CH2" s="1" t="s">
+      <c r="CL2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="CI2" s="1" t="s">
+      <c r="CM2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="CJ2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CM2" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="CN2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CQ2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CR2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="CO2" s="1" t="s">
+      <c r="CS2" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="CS2" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
@@ -1841,7 +1915,7 @@
         <v>85.62</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AK3" s="3">
         <v>0.14000000000000001</v>
@@ -1889,7 +1963,7 @@
         <v>0.36</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="BA3" s="3">
         <v>26</v>
@@ -1916,7 +1990,7 @@
         <v>3723</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="BJ3" s="3">
         <v>745.4</v>
@@ -2006,7 +2080,7 @@
         <v>32</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="CN3" s="3">
         <v>42212</v>
@@ -2132,7 +2206,7 @@
       </c>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AK4" s="3">
         <v>8.8499999999999995E-2</v>
@@ -2174,7 +2248,7 @@
         <v>0.39</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="BA4" s="3">
         <v>28</v>
@@ -2201,7 +2275,7 @@
         <v>2586</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="BJ4" s="3">
         <v>181.3</v>
@@ -2289,7 +2363,7 @@
         <v>11</v>
       </c>
       <c r="CM4" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="CN4" s="3">
         <v>56623</v>
@@ -2417,7 +2491,7 @@
         <v>50.29</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AK5" s="3">
         <v>0.10299999999999999</v>
@@ -2465,7 +2539,7 @@
         <v>0.35</v>
       </c>
       <c r="AZ5" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="BA5" s="3">
         <v>9</v>
@@ -2492,7 +2566,7 @@
         <v>2787</v>
       </c>
       <c r="BI5" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="BJ5" s="3">
         <v>680.95</v>
@@ -2582,7 +2656,7 @@
         <v>16</v>
       </c>
       <c r="CM5" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="CN5" s="3">
         <v>68209</v>
@@ -2710,7 +2784,7 @@
         <v>50.93</v>
       </c>
       <c r="AJ6" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AK6" s="3">
         <v>9.9000000000000005E-2</v>
@@ -2758,7 +2832,7 @@
         <v>0.4</v>
       </c>
       <c r="AZ6" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA6" s="3">
         <v>10</v>
@@ -2785,7 +2859,7 @@
         <v>2682</v>
       </c>
       <c r="BI6" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BJ6" s="3">
         <v>516.5</v>
@@ -2875,7 +2949,7 @@
         <v>25</v>
       </c>
       <c r="CM6" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="CN6" s="3">
         <v>59223</v>
@@ -3003,7 +3077,7 @@
         <v>66.400000000000006</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AK7" s="3">
         <v>0.11600000000000001</v>
@@ -3051,7 +3125,7 @@
         <v>0.32</v>
       </c>
       <c r="AZ7" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="BA7" s="3">
         <v>24</v>
@@ -3078,7 +3152,7 @@
         <v>3553</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="BJ7" s="3">
         <v>272.89999999999998</v>
@@ -3168,7 +3242,7 @@
         <v>18</v>
       </c>
       <c r="CM7" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="CN7" s="3">
         <v>47083</v>
@@ -3296,7 +3370,7 @@
         <v>41.19</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AK8" s="3">
         <v>8.5999999999999993E-2</v>
@@ -3344,7 +3418,7 @@
         <v>0.39</v>
       </c>
       <c r="AZ8" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BA8" s="3">
         <v>12</v>
@@ -3371,7 +3445,7 @@
         <v>2536</v>
       </c>
       <c r="BI8" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="BJ8" s="3">
         <v>285.05</v>
@@ -3461,7 +3535,7 @@
         <v>17</v>
       </c>
       <c r="CM8" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="CN8" s="3">
         <v>80286</v>
@@ -3589,7 +3663,7 @@
         <v>53.11</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AK9" s="3">
         <v>9.0999999999999998E-2</v>
@@ -3637,7 +3711,7 @@
         <v>0.36</v>
       </c>
       <c r="AZ9" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="BA9" s="3">
         <v>17</v>
@@ -3664,7 +3738,7 @@
         <v>2240.5</v>
       </c>
       <c r="BI9" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="BJ9" s="3">
         <v>208.6</v>
@@ -3754,7 +3828,7 @@
         <v>24</v>
       </c>
       <c r="CM9" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="CN9" s="3">
         <v>56998</v>
@@ -3882,7 +3956,7 @@
         <v>51.61</v>
       </c>
       <c r="AJ10" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK10" s="3">
         <v>0.127</v>
@@ -3930,7 +4004,7 @@
         <v>0.26</v>
       </c>
       <c r="AZ10" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="BA10" s="3">
         <v>19</v>
@@ -3957,7 +4031,7 @@
         <v>2798</v>
       </c>
       <c r="BI10" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="BJ10" s="3">
         <v>392.9</v>
@@ -4047,7 +4121,7 @@
         <v>24</v>
       </c>
       <c r="CM10" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="CN10" s="3">
         <v>51608</v>
@@ -4175,7 +4249,7 @@
         <v>50.25</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AK11" s="3">
         <v>9.1999999999999998E-2</v>
@@ -4223,7 +4297,7 @@
         <v>0.34</v>
       </c>
       <c r="AZ11" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BA11" s="3">
         <v>12</v>
@@ -4250,7 +4324,7 @@
         <v>1575</v>
       </c>
       <c r="BI11" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="BJ11" s="3">
         <v>196.95</v>
@@ -4340,7 +4414,7 @@
         <v>34</v>
       </c>
       <c r="CM11" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="CN11" s="3">
         <v>63576</v>
@@ -4468,7 +4542,7 @@
         <v>49.41</v>
       </c>
       <c r="AJ12" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AK12" s="3">
         <v>9.5000000000000001E-2</v>
@@ -4516,7 +4590,7 @@
         <v>0.4</v>
       </c>
       <c r="AZ12" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BA12" s="3">
         <v>10</v>
@@ -4543,7 +4617,7 @@
         <v>3153</v>
       </c>
       <c r="BI12" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="BJ12" s="3">
         <v>427.7</v>
@@ -4633,7 +4707,7 @@
         <v>22</v>
       </c>
       <c r="CM12" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="CN12" s="3">
         <v>64593</v>
@@ -4761,7 +4835,7 @@
         <v>53.15</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AK13" s="3">
         <v>0.10299999999999999</v>
@@ -4809,7 +4883,7 @@
         <v>0.35</v>
       </c>
       <c r="AZ13" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="BA13" s="3">
         <v>14</v>
@@ -4836,7 +4910,7 @@
         <v>2950</v>
       </c>
       <c r="BI13" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="BJ13" s="3">
         <v>514.5</v>
@@ -4926,7 +5000,7 @@
         <v>27</v>
       </c>
       <c r="CM13" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="CN13" s="3">
         <v>63593</v>
@@ -5052,7 +5126,7 @@
         <v>48.07</v>
       </c>
       <c r="AJ14" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AK14" s="3">
         <v>0.09</v>
@@ -5100,7 +5174,7 @@
         <v>0.37</v>
       </c>
       <c r="AZ14" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="BA14" s="3">
         <v>12</v>
@@ -5127,7 +5201,7 @@
         <v>2809</v>
       </c>
       <c r="BI14" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="BJ14" s="3">
         <v>481.3</v>
@@ -5343,7 +5417,7 @@
         <v>111.72</v>
       </c>
       <c r="AJ15" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AK15" s="3">
         <v>0.13300000000000001</v>
@@ -5391,7 +5465,7 @@
         <v>0.24</v>
       </c>
       <c r="AZ15" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="BA15" s="3">
         <v>36</v>
@@ -5418,7 +5492,7 @@
         <v>3100</v>
       </c>
       <c r="BI15" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="BJ15" s="3">
         <v>708.35</v>
@@ -5508,7 +5582,7 @@
         <v>29</v>
       </c>
       <c r="CM15" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="CN15" s="3">
         <v>47266</v>
@@ -5636,7 +5710,7 @@
         <v>51.23</v>
       </c>
       <c r="AJ16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AK16" s="3">
         <v>9.1999999999999998E-2</v>
@@ -5684,7 +5758,7 @@
         <v>0.41</v>
       </c>
       <c r="AZ16" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="BA16" s="3">
         <v>15</v>
@@ -5711,7 +5785,7 @@
         <v>2740</v>
       </c>
       <c r="BI16" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="BJ16" s="3">
         <v>256.64999999999998</v>
@@ -5801,7 +5875,7 @@
         <v>20</v>
       </c>
       <c r="CM16" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="CN16" s="3">
         <v>61285</v>
@@ -5929,7 +6003,7 @@
         <v>37.119999999999997</v>
       </c>
       <c r="AJ17" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AK17" s="3">
         <v>9.0999999999999998E-2</v>
@@ -5977,7 +6051,7 @@
         <v>0.38</v>
       </c>
       <c r="AZ17" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="BA17" s="3">
         <v>8</v>
@@ -6004,7 +6078,7 @@
         <v>2707.5</v>
       </c>
       <c r="BI17" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="BJ17" s="3">
         <v>372.2</v>
@@ -6094,7 +6168,7 @@
         <v>18</v>
       </c>
       <c r="CM17" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="CN17" s="3">
         <v>87692</v>
@@ -6222,7 +6296,7 @@
         <v>65.72</v>
       </c>
       <c r="AJ18" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AK18" s="3">
         <v>0.113</v>
@@ -6270,7 +6344,7 @@
         <v>0.35</v>
       </c>
       <c r="AZ18" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BA18" s="3">
         <v>22</v>
@@ -6297,7 +6371,7 @@
         <v>3393</v>
       </c>
       <c r="BI18" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="BJ18" s="3">
         <v>367.4</v>
@@ -6387,7 +6461,7 @@
         <v>22</v>
       </c>
       <c r="CM18" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="CN18" s="3">
         <v>51322</v>
@@ -6405,6 +6479,3151 @@
         <v>11.25</v>
       </c>
       <c r="CS18" s="3">
+        <v>4.5400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN22" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO22" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP22" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR22" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS22" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU22" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX22" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY22" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA22" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB22" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC22" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE22" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="BF22" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG22" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH22" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="BI22" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.1003</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="I23" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0.2233</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="L23" s="9">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="M23" s="9">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="O23" s="9">
+        <v>0.4874</v>
+      </c>
+      <c r="P23" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="T23" s="9">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="U23" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="V23" s="9">
+        <v>0.08</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>0.151</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="AE23" s="9">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>0.1201</v>
+      </c>
+      <c r="AG23" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="AH23" s="9">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AI23" s="9">
+        <v>0.2185</v>
+      </c>
+      <c r="AJ23" s="9">
+        <v>0.1714</v>
+      </c>
+      <c r="AK23" s="9">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="AL23" s="9">
+        <v>0.1371</v>
+      </c>
+      <c r="AM23" s="9">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="AN23" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="AO23" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="AP23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AQ23" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="AR23" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AS23" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="AT23" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AU23" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="AV23" s="9">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="AW23" s="9">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="AX23" s="9">
+        <v>0.54359999999999997</v>
+      </c>
+      <c r="AY23" s="9">
+        <v>0.4425</v>
+      </c>
+      <c r="AZ23" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="BA23" s="9">
+        <v>0.2843</v>
+      </c>
+      <c r="BB23" s="9">
+        <v>0.93010000000000004</v>
+      </c>
+      <c r="BC23" s="9">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="BD23" s="9">
+        <v>0.4209</v>
+      </c>
+      <c r="BE23" s="9">
+        <v>0.79</v>
+      </c>
+      <c r="BF23" s="9">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="BG23" s="9">
+        <v>0.1376</v>
+      </c>
+      <c r="BH23" s="9">
+        <v>0.1527</v>
+      </c>
+      <c r="BI23" s="13">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D24" s="10">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.246</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I24" s="10">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0.49280000000000002</v>
+      </c>
+      <c r="L24" s="10">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="M24" s="10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="N24" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="P24" s="10">
+        <v>3.3E-3</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>1</v>
+      </c>
+      <c r="R24" s="10">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="S24" s="10">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="T24" s="10">
+        <v>0.92079999999999995</v>
+      </c>
+      <c r="U24" s="10">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="V24" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="W24" s="10">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="X24" s="10">
+        <v>0.186</v>
+      </c>
+      <c r="Y24" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="AA24" s="10">
+        <v>0.2248</v>
+      </c>
+      <c r="AB24" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="AC24" s="10">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="AD24" s="10">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>0.3075</v>
+      </c>
+      <c r="AF24" s="10">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="AG24" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="AH24" s="10">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AI24" s="10">
+        <v>0.122</v>
+      </c>
+      <c r="AJ24" s="10">
+        <v>0.122</v>
+      </c>
+      <c r="AK24" s="10">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="AL24" s="10">
+        <v>0.1091</v>
+      </c>
+      <c r="AM24" s="10">
+        <v>0.80220000000000002</v>
+      </c>
+      <c r="AN24" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AO24" s="10">
+        <v>0.68</v>
+      </c>
+      <c r="AP24" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AQ24" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AR24" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="AS24" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="AT24" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="AU24" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="AV24" s="10">
+        <v>0.1777</v>
+      </c>
+      <c r="AW24" s="10">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="AX24" s="10">
+        <v>0.18940000000000001</v>
+      </c>
+      <c r="AY24" s="10">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="AZ24" s="10">
+        <v>0.71609999999999996</v>
+      </c>
+      <c r="BA24" s="10">
+        <v>0.25879999999999997</v>
+      </c>
+      <c r="BB24" s="10">
+        <v>0.4199</v>
+      </c>
+      <c r="BC24" s="10">
+        <v>0.1595</v>
+      </c>
+      <c r="BD24" s="10">
+        <v>0.15140000000000001</v>
+      </c>
+      <c r="BE24" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="BF24" s="10">
+        <v>0.78080000000000005</v>
+      </c>
+      <c r="BG24" s="10">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="BH24" s="10">
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="BI24" s="14">
+        <v>2.7799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.71240000000000003</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.1225</v>
+      </c>
+      <c r="E25" s="9">
+        <v>4.24E-2</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.3775</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.14810000000000001</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1.03E-2</v>
+      </c>
+      <c r="I25" s="9">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="M25" s="9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0.45660000000000001</v>
+      </c>
+      <c r="P25" s="9">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="S25" s="9">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="T25" s="9">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="U25" s="9">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="V25" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>0.186</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="AE25" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="AG25" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="AH25" s="9">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="AI25" s="9">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="AJ25" s="9">
+        <v>0.1139</v>
+      </c>
+      <c r="AK25" s="9">
+        <v>4.19E-2</v>
+      </c>
+      <c r="AL25" s="9">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="AM25" s="9">
+        <v>0.88229999999999997</v>
+      </c>
+      <c r="AN25" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="AO25" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="AP25" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="AQ25" s="9">
+        <v>0.39</v>
+      </c>
+      <c r="AR25" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="AS25" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AT25" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="AU25" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AV25" s="9">
+        <v>0.64680000000000004</v>
+      </c>
+      <c r="AW25" s="9">
+        <v>0.29470000000000002</v>
+      </c>
+      <c r="AX25" s="9">
+        <v>0.66420000000000001</v>
+      </c>
+      <c r="AY25" s="9">
+        <v>0.31719999999999998</v>
+      </c>
+      <c r="AZ25" s="9">
+        <v>0.6633</v>
+      </c>
+      <c r="BA25" s="9">
+        <v>0.28139999999999998</v>
+      </c>
+      <c r="BB25" s="9">
+        <v>0.6119</v>
+      </c>
+      <c r="BC25" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="BD25" s="9">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="BE25" s="9">
+        <v>0.84</v>
+      </c>
+      <c r="BF25" s="9">
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="BG25" s="9">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="BH25" s="9">
+        <v>0.18629999999999999</v>
+      </c>
+      <c r="BI25" s="13">
+        <v>5.4399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.77039999999999997</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.121</v>
+      </c>
+      <c r="E26" s="10">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="H26" s="10">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="I26" s="10">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.19919999999999999</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.50660000000000005</v>
+      </c>
+      <c r="L26" s="10">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="M26" s="10">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="P26" s="10">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>0.2432</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0.379</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="T26" s="10">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="V26" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="W26" s="10">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="X26" s="10">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="Y26" s="10">
+        <v>0.2727</v>
+      </c>
+      <c r="Z26" s="10">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AA26" s="10">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="AB26" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="AC26" s="10">
+        <v>0.154</v>
+      </c>
+      <c r="AD26" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AE26" s="10">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="AG26" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AH26" s="10">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AI26" s="10">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="AJ26" s="10">
+        <v>0.1055</v>
+      </c>
+      <c r="AK26" s="10">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="AL26" s="10">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="AM26" s="10">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="AN26" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="AQ26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AR26" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="AS26" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="AT26" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="AU26" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="AV26" s="10">
+        <v>0.48759999999999998</v>
+      </c>
+      <c r="AW26" s="10">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="AX26" s="10">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="AY26" s="10">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="AZ26" s="10">
+        <v>0.62470000000000003</v>
+      </c>
+      <c r="BA26" s="10">
+        <v>0.29630000000000001</v>
+      </c>
+      <c r="BB26" s="10">
+        <v>0.47510000000000002</v>
+      </c>
+      <c r="BC26" s="10">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="BD26" s="10">
+        <v>0.2407</v>
+      </c>
+      <c r="BE26" s="10">
+        <v>0.81</v>
+      </c>
+      <c r="BF26" s="10">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="BG26" s="10">
+        <v>0.1416</v>
+      </c>
+      <c r="BH26" s="10">
+        <v>0.1595</v>
+      </c>
+      <c r="BI26" s="14">
+        <v>4.1200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.82940000000000003</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.158</v>
+      </c>
+      <c r="E27" s="9">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="H27" s="9">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="I27" s="9">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.21859999999999999</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="L27" s="9">
+        <v>2.87E-2</v>
+      </c>
+      <c r="M27" s="9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N27" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="O27" s="9">
+        <v>0.89959999999999996</v>
+      </c>
+      <c r="P27" s="9">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0.77890000000000004</v>
+      </c>
+      <c r="R27" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="S27" s="9">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="T27" s="9">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="U27" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="V27" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="W27" s="9">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="X27" s="9">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="AE27" s="9">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="AF27" s="9">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="AG27" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="AH27" s="9">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="AI27" s="9">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AJ27" s="9">
+        <v>0.15529999999999999</v>
+      </c>
+      <c r="AK27" s="9">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="AL27" s="9">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="AM27" s="9">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="AN27" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="AO27" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="AP27" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="AQ27" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="AR27" s="9">
+        <v>0.31</v>
+      </c>
+      <c r="AS27" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="AT27" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="AU27" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="AV27" s="9">
+        <v>0.1961</v>
+      </c>
+      <c r="AW27" s="9">
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="AX27" s="9">
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="AY27" s="9">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AZ27" s="9">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="BA27" s="9">
+        <v>0.2596</v>
+      </c>
+      <c r="BB27" s="9">
+        <v>0.62990000000000002</v>
+      </c>
+      <c r="BC27" s="9">
+        <v>0.247</v>
+      </c>
+      <c r="BD27" s="9">
+        <v>0.2505</v>
+      </c>
+      <c r="BE27" s="9">
+        <v>0.76</v>
+      </c>
+      <c r="BF27" s="9">
+        <v>0.75070000000000003</v>
+      </c>
+      <c r="BG27" s="9">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="BH27" s="9">
+        <v>0.1206</v>
+      </c>
+      <c r="BI27" s="13">
+        <v>4.4200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.81089999999999995</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D28" s="10">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E28" s="10">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="H28" s="10">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.23069999999999999</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.50149999999999995</v>
+      </c>
+      <c r="L28" s="10">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="M28" s="10">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="P28" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="R28" s="10">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="S28" s="10">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="T28" s="10">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="U28" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="V28" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="W28" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="X28" s="10">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="Z28" s="10">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="AA28" s="10">
+        <v>0.1993</v>
+      </c>
+      <c r="AB28" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="AC28" s="10">
+        <v>0.14349999999999999</v>
+      </c>
+      <c r="AD28" s="10">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="AE28" s="10">
+        <v>0.32350000000000001</v>
+      </c>
+      <c r="AF28" s="10">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="AG28" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="AH28" s="10">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AI28" s="10">
+        <v>0.1235</v>
+      </c>
+      <c r="AJ28" s="10">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="AK28" s="10">
+        <v>5.5300000000000002E-2</v>
+      </c>
+      <c r="AL28" s="10">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="AM28" s="10">
+        <v>0.8952</v>
+      </c>
+      <c r="AN28" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AO28" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AP28" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AQ28" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="AR28" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="AS28" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="AT28" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="AU28" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AV28" s="10">
+        <v>0.3846</v>
+      </c>
+      <c r="AW28" s="10">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="AX28" s="10">
+        <v>0.43690000000000001</v>
+      </c>
+      <c r="AY28" s="10">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="AZ28" s="10">
+        <v>0.74470000000000003</v>
+      </c>
+      <c r="BA28" s="10">
+        <v>0.2223</v>
+      </c>
+      <c r="BB28" s="10">
+        <v>0.35170000000000001</v>
+      </c>
+      <c r="BC28" s="10">
+        <v>0.1075</v>
+      </c>
+      <c r="BD28" s="10">
+        <v>0.1855</v>
+      </c>
+      <c r="BE28" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="BF28" s="10">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="BG28" s="10">
+        <v>0.1023</v>
+      </c>
+      <c r="BH28" s="10">
+        <v>0.1216</v>
+      </c>
+      <c r="BI28" s="14">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="29" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0.67179999999999995</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.76459999999999995</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.123</v>
+      </c>
+      <c r="E29" s="9">
+        <v>6.0699999999999997E-2</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="I29" s="9">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0.17730000000000001</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0.495</v>
+      </c>
+      <c r="L29" s="9">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="M29" s="9">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="P29" s="9">
+        <v>1E-4</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="R29" s="9">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="S29" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="T29" s="9">
+        <v>0.9083</v>
+      </c>
+      <c r="U29" s="9">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="V29" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="W29" s="9">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="X29" s="9">
+        <v>0.1885</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>0.30420000000000003</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="AB29" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>0.154</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>0.104</v>
+      </c>
+      <c r="AE29" s="9">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="AF29" s="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AG29" s="9">
+        <v>0.36</v>
+      </c>
+      <c r="AH29" s="9">
+        <v>0.221</v>
+      </c>
+      <c r="AI29" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AJ29" s="9">
+        <v>0.1241</v>
+      </c>
+      <c r="AK29" s="9">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="AL29" s="9">
+        <v>0.1099</v>
+      </c>
+      <c r="AM29" s="9">
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="AN29" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="AO29" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="AP29" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="AQ29" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AR29" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="AS29" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="AT29" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="AU29" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="AV29" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="AW29" s="9">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="AX29" s="9">
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="AY29" s="9">
+        <v>0.57789999999999997</v>
+      </c>
+      <c r="AZ29" s="9">
+        <v>0.7288</v>
+      </c>
+      <c r="BA29" s="9">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="BB29" s="9">
+        <v>0.51470000000000005</v>
+      </c>
+      <c r="BC29" s="9">
+        <v>0.192</v>
+      </c>
+      <c r="BD29" s="9">
+        <v>0.2208</v>
+      </c>
+      <c r="BE29" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="BF29" s="9">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="BG29" s="9">
+        <v>0.1132</v>
+      </c>
+      <c r="BH29" s="9">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="BI29" s="13">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.1016</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.2475</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.1552</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="I30" s="10">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="J30" s="10">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0.53049999999999997</v>
+      </c>
+      <c r="M30" s="10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.3841</v>
+      </c>
+      <c r="P30" s="10">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="R30" s="10">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="S30" s="10">
+        <v>0.497</v>
+      </c>
+      <c r="T30" s="10">
+        <v>0.7792</v>
+      </c>
+      <c r="U30" s="10">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="V30" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="W30" s="10">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="X30" s="10">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Y30" s="10">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="Z30" s="10">
+        <v>0.127</v>
+      </c>
+      <c r="AA30" s="10">
+        <v>0.1835</v>
+      </c>
+      <c r="AB30" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="AC30" s="10">
+        <v>0.155</v>
+      </c>
+      <c r="AD30" s="10">
+        <v>0.122</v>
+      </c>
+      <c r="AE30" s="10">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AF30" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="AG30" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="AH30" s="10">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="AI30" s="10">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AJ30" s="10">
+        <v>0.2361</v>
+      </c>
+      <c r="AK30" s="10">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="AL30" s="10">
+        <v>0.20169999999999999</v>
+      </c>
+      <c r="AM30" s="10">
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="AN30" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="AO30" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="AP30" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="AQ30" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AR30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AS30" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="AT30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU30" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="AV30" s="10">
+        <v>0.48649999999999999</v>
+      </c>
+      <c r="AW30" s="10">
+        <v>0.45079999999999998</v>
+      </c>
+      <c r="AX30" s="10">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="AY30" s="10">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="AZ30" s="10">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="BA30" s="10">
+        <v>0.27950000000000003</v>
+      </c>
+      <c r="BB30" s="10">
+        <v>0.67310000000000003</v>
+      </c>
+      <c r="BC30" s="10">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="BD30" s="10">
+        <v>0.25640000000000002</v>
+      </c>
+      <c r="BE30" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="BF30" s="10">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="BG30" s="10">
+        <v>0.1065</v>
+      </c>
+      <c r="BH30" s="10">
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="BI30" s="14">
+        <v>6.0199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="9">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="D31" s="9">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E31" s="9">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.1474</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1.35E-2</v>
+      </c>
+      <c r="I31" s="9">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0.4899</v>
+      </c>
+      <c r="L31" s="9">
+        <v>9.69E-2</v>
+      </c>
+      <c r="M31" s="9">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9">
+        <v>0.84850000000000003</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0.5151</v>
+      </c>
+      <c r="R31" s="9">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="S31" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="T31" s="9">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="U31" s="9">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="V31" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="W31" s="9">
+        <v>0.308</v>
+      </c>
+      <c r="X31" s="9">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>0.2424</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>0.12839999999999999</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AE31" s="9">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="AG31" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="AH31" s="9">
+        <v>0.187</v>
+      </c>
+      <c r="AI31" s="9">
+        <v>0.127</v>
+      </c>
+      <c r="AJ31" s="9">
+        <v>0.1273</v>
+      </c>
+      <c r="AK31" s="9">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="AL31" s="9">
+        <v>0.11310000000000001</v>
+      </c>
+      <c r="AM31" s="9">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="AN31" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="AO31" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="AP31" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="AQ31" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="AR31" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="AS31" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="AT31" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="AU31" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="AV31" s="9">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="AW31" s="9">
+        <v>0.4698</v>
+      </c>
+      <c r="AX31" s="9">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="AY31" s="9">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="AZ31" s="9">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="BA31" s="9">
+        <v>0.21390000000000001</v>
+      </c>
+      <c r="BB31" s="9">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="BC31" s="9">
+        <v>0.125</v>
+      </c>
+      <c r="BD31" s="9">
+        <v>0.13159999999999999</v>
+      </c>
+      <c r="BE31" s="9">
+        <v>0.68</v>
+      </c>
+      <c r="BF31" s="9">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="BG31" s="9">
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="BH31" s="9">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="BI31" s="13">
+        <v>2.8799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:97" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E32" s="10">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0.1852</v>
+      </c>
+      <c r="H32" s="10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I32" s="10">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0.2167</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0.50580000000000003</v>
+      </c>
+      <c r="L32" s="10">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="M32" s="10">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="P32" s="10">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>0.20749999999999999</v>
+      </c>
+      <c r="R32" s="10">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="S32" s="10">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="U32" s="10">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="V32" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W32" s="10">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="X32" s="10">
+        <v>0.193</v>
+      </c>
+      <c r="Y32" s="10">
+        <v>0.2833</v>
+      </c>
+      <c r="Z32" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>0.1966</v>
+      </c>
+      <c r="AB32" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC32" s="10">
+        <v>0.161</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AE32" s="10">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AF32" s="10">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="AG32" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AH32" s="10">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AI32" s="10">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="AJ32" s="10">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="AK32" s="10">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="AL32" s="10">
+        <v>7.5200000000000003E-2</v>
+      </c>
+      <c r="AM32" s="10">
+        <v>0.85829999999999995</v>
+      </c>
+      <c r="AN32" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="AO32" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="AP32" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="AQ32" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="AR32" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="AS32" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="AT32" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AU32" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="AV32" s="10">
+        <v>0.40839999999999999</v>
+      </c>
+      <c r="AW32" s="10">
+        <v>0.53639999999999999</v>
+      </c>
+      <c r="AX32" s="10">
+        <v>0.437</v>
+      </c>
+      <c r="AY32" s="10">
+        <v>0.54569999999999996</v>
+      </c>
+      <c r="AZ32" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="BA32" s="10">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="BB32" s="10">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="BC32" s="10">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="BD32" s="10">
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="BE32" s="10">
+        <v>0.78</v>
+      </c>
+      <c r="BF32" s="10">
+        <v>0.7147</v>
+      </c>
+      <c r="BG32" s="10">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="BH32" s="10">
+        <v>0.1232</v>
+      </c>
+      <c r="BI32" s="14">
+        <v>5.3199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="9">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E33" s="9">
+        <v>9.64E-2</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.1497</v>
+      </c>
+      <c r="H33" s="9">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="I33" s="9">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.2374</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0.49580000000000002</v>
+      </c>
+      <c r="L33" s="9">
+        <v>8.3599999999999994E-2</v>
+      </c>
+      <c r="M33" s="9">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="P33" s="9">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0.2475</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0.311</v>
+      </c>
+      <c r="S33" s="9">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="T33" s="9">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="U33" s="9">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="V33" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="W33" s="9">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="X33" s="9">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Y33" s="9">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="AA33" s="9">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="AB33" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="AC33" s="9">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="AD33" s="9">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="AE33" s="9">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AF33" s="9">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="AG33" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="AH33" s="9">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="AI33" s="9">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AJ33" s="9">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="AK33" s="9">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="AL33" s="9">
+        <v>0.1226</v>
+      </c>
+      <c r="AM33" s="9">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="AN33" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="AO33" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AP33" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="AQ33" s="9">
+        <v>0.61</v>
+      </c>
+      <c r="AR33" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="AS33" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AT33" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="AU33" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AV33" s="9">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AW33" s="9">
+        <v>0.54990000000000006</v>
+      </c>
+      <c r="AX33" s="9">
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="AY33" s="9">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AZ33" s="9">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="BA33" s="9">
+        <v>0.2306</v>
+      </c>
+      <c r="BB33" s="9">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="BC33" s="9">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="BD33" s="9">
+        <v>0.25269999999999998</v>
+      </c>
+      <c r="BE33" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="BF33" s="9">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="BG33" s="9">
+        <v>0.1181</v>
+      </c>
+      <c r="BH33" s="9">
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="BI33" s="13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="10">
+        <v>0.84240000000000004</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.73240000000000005</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="E34" s="10">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="H34" s="10">
+        <v>1.32E-2</v>
+      </c>
+      <c r="I34" s="10">
+        <v>6.13E-2</v>
+      </c>
+      <c r="J34" s="10">
+        <v>0.22170000000000001</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="L34" s="10">
+        <v>0.1888</v>
+      </c>
+      <c r="M34" s="10">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0.13</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0.59309999999999996</v>
+      </c>
+      <c r="P34" s="10">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>0.193</v>
+      </c>
+      <c r="R34" s="10">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="S34" s="10">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="T34" s="10">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="U34" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="V34" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="W34" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="X34" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="Y34" s="10">
+        <v>0.2656</v>
+      </c>
+      <c r="Z34" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="AA34" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="AB34" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="AC34" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD34" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="AE34" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="AF34" s="10">
+        <v>8.1900000000000001E-2</v>
+      </c>
+      <c r="AG34" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="AH34" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="AI34" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="AJ34" s="10">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="AK34" s="10">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AL34" s="10">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="AM34" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="AN34" s="10">
+        <v>0.48380000000000001</v>
+      </c>
+      <c r="AO34" s="10">
+        <v>0.47870000000000001</v>
+      </c>
+      <c r="AP34" s="10">
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="AQ34" s="10">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="AR34" s="10">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="AS34" s="10">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="AT34" s="10">
+        <v>0.5101</v>
+      </c>
+      <c r="AU34" s="10">
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="AV34" s="10">
+        <v>0.48020000000000002</v>
+      </c>
+      <c r="AW34" s="10">
+        <v>0.45929999999999999</v>
+      </c>
+      <c r="AX34" s="10">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="AY34" s="10">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AZ34" s="10">
+        <v>0.67910000000000004</v>
+      </c>
+      <c r="BA34" s="10">
+        <v>0.26590000000000003</v>
+      </c>
+      <c r="BB34" s="10">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="BC34" s="10">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="BD34" s="10">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="BE34" s="10">
+        <v>0.81</v>
+      </c>
+      <c r="BF34" s="10">
+        <v>0.64629999999999999</v>
+      </c>
+      <c r="BG34" s="10">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="BH34" s="10">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="BI34" s="14">
+        <v>5.3499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.1331</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="I35" s="9">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.49690000000000001</v>
+      </c>
+      <c r="L35" s="9">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="M35" s="9">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="O35" s="9">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="P35" s="9">
+        <v>3.3E-3</v>
+      </c>
+      <c r="Q35" s="9">
+        <v>1</v>
+      </c>
+      <c r="R35" s="9">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="S35" s="9">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="T35" s="9">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="U35" s="9">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="V35" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="W35" s="9">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="X35" s="9">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="Y35" s="9">
+        <v>0.3987</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>0.1943</v>
+      </c>
+      <c r="AB35" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC35" s="9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="AD35" s="9">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AE35" s="9">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="AF35" s="9">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="AG35" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="AH35" s="9">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AI35" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="AJ35" s="9">
+        <v>0.2064</v>
+      </c>
+      <c r="AK35" s="9">
+        <v>9.1899999999999996E-2</v>
+      </c>
+      <c r="AL35" s="9">
+        <v>0.1658</v>
+      </c>
+      <c r="AM35" s="9">
+        <v>0.70030000000000003</v>
+      </c>
+      <c r="AN35" s="9">
+        <v>0.49</v>
+      </c>
+      <c r="AO35" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="AP35" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="AQ35" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="AR35" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="AS35" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="AT35" s="9">
+        <v>0.51</v>
+      </c>
+      <c r="AU35" s="9">
+        <v>0.48</v>
+      </c>
+      <c r="AV35" s="9">
+        <v>0.36880000000000002</v>
+      </c>
+      <c r="AW35" s="9">
+        <v>0.56230000000000002</v>
+      </c>
+      <c r="AX35" s="9">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="AY35" s="9">
+        <v>0.58789999999999998</v>
+      </c>
+      <c r="AZ35" s="9">
+        <v>0.54020000000000001</v>
+      </c>
+      <c r="BA35" s="9">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="BB35" s="9">
+        <v>0.8901</v>
+      </c>
+      <c r="BC35" s="9">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="BD35" s="9">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="BE35" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="BF35" s="9">
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="BG35" s="9">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="BH35" s="9">
+        <v>0.182</v>
+      </c>
+      <c r="BI35" s="13">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="10">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.105</v>
+      </c>
+      <c r="E36" s="10">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0.311</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.20130000000000001</v>
+      </c>
+      <c r="H36" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I36" s="10">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="J36" s="10">
+        <v>0.2223</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.497</v>
+      </c>
+      <c r="L36" s="10">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="M36" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="P36" s="10">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>0.5907</v>
+      </c>
+      <c r="R36" s="10">
+        <v>0.223</v>
+      </c>
+      <c r="S36" s="10">
+        <v>0.6825</v>
+      </c>
+      <c r="T36" s="10">
+        <v>0.91290000000000004</v>
+      </c>
+      <c r="U36" s="10">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="V36" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="W36" s="10">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="X36" s="10">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="Y36" s="10">
+        <v>0.26669999999999999</v>
+      </c>
+      <c r="Z36" s="10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AA36" s="10">
+        <v>0.2046</v>
+      </c>
+      <c r="AB36" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AC36" s="10">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="AD36" s="10">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="AE36" s="10">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="AF36" s="10">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="AG36" s="10">
+        <v>0.41</v>
+      </c>
+      <c r="AH36" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="AI36" s="10">
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="AJ36" s="10">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="AK36" s="10">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="AL36" s="10">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="AM36" s="10">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="AN36" s="10">
+        <v>0.41</v>
+      </c>
+      <c r="AO36" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AP36" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AQ36" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="AR36" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="AS36" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="AT36" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AU36" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AV36" s="10">
+        <v>0.3014</v>
+      </c>
+      <c r="AW36" s="10">
+        <v>0.63739999999999997</v>
+      </c>
+      <c r="AX36" s="10">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AY36" s="10">
+        <v>0.65669999999999995</v>
+      </c>
+      <c r="AZ36" s="10">
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="BA36" s="10">
+        <v>0.24909999999999999</v>
+      </c>
+      <c r="BB36" s="10">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="BC36" s="10">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="BD36" s="10">
+        <v>0.19209999999999999</v>
+      </c>
+      <c r="BE36" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="BF36" s="10">
+        <v>0.76019999999999999</v>
+      </c>
+      <c r="BG36" s="10">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="BH36" s="10">
+        <v>0.10539999999999999</v>
+      </c>
+      <c r="BI36" s="14">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="9">
+        <v>0.95389999999999997</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="D37" s="9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E37" s="9">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.435</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.15939999999999999</v>
+      </c>
+      <c r="H37" s="9">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="I37" s="9">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0.2228</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="M37" s="9">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="N37" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0.60240000000000005</v>
+      </c>
+      <c r="P37" s="9">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="S37" s="9">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="T37" s="9">
+        <v>0.91610000000000003</v>
+      </c>
+      <c r="U37" s="9">
+        <v>0.8871</v>
+      </c>
+      <c r="V37" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W37" s="9">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="X37" s="9">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="Y37" s="9">
+        <v>0.26790000000000003</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="AB37" s="9">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AC37" s="9">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="AD37" s="9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="AE37" s="9">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AF37" s="9">
+        <v>7.8299999999999995E-2</v>
+      </c>
+      <c r="AG37" s="9">
+        <v>0.38</v>
+      </c>
+      <c r="AH37" s="9">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AI37" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="AJ37" s="9">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="AK37" s="9">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="AL37" s="9">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="AM37" s="9">
+        <v>0.91110000000000002</v>
+      </c>
+      <c r="AN37" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="AO37" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="AP37" s="9">
+        <v>0.52</v>
+      </c>
+      <c r="AQ37" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="AR37" s="9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AS37" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="AT37" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AU37" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="AV37" s="9">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="AW37" s="9">
+        <v>0.39489999999999997</v>
+      </c>
+      <c r="AX37" s="9">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="AY37" s="9">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="AZ37" s="9">
+        <v>0.73970000000000002</v>
+      </c>
+      <c r="BA37" s="9">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="BB37" s="9">
+        <v>0.43090000000000001</v>
+      </c>
+      <c r="BC37" s="9">
+        <v>0.1145</v>
+      </c>
+      <c r="BD37" s="9">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="BE37" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="BF37" s="9">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="BG37" s="9">
+        <v>0.1346</v>
+      </c>
+      <c r="BH37" s="9">
+        <v>0.15310000000000001</v>
+      </c>
+      <c r="BI37" s="13">
+        <v>4.7300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="10">
+        <v>0.53259999999999996</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E38" s="10">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0.371</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.1988</v>
+      </c>
+      <c r="H38" s="10">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I38" s="10">
+        <v>6.3E-3</v>
+      </c>
+      <c r="J38" s="10">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0.503</v>
+      </c>
+      <c r="L38" s="10">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="M38" s="10">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="N38" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="P38" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="R38" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="S38" s="10">
+        <v>0.5635</v>
+      </c>
+      <c r="T38" s="10">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="U38" s="10">
+        <v>0.90720000000000001</v>
+      </c>
+      <c r="V38" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="W38" s="10">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="X38" s="10">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="Y38" s="10">
+        <v>0.26190000000000002</v>
+      </c>
+      <c r="Z38" s="10">
+        <v>0.113</v>
+      </c>
+      <c r="AA38" s="10">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AB38" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="AC38" s="10">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="AD38" s="10">
+        <v>0.123</v>
+      </c>
+      <c r="AE38" s="10">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="AF38" s="10">
+        <v>8.7400000000000005E-2</v>
+      </c>
+      <c r="AG38" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="AH38" s="10">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI38" s="10">
+        <v>0.185</v>
+      </c>
+      <c r="AJ38" s="10">
+        <v>0.1661</v>
+      </c>
+      <c r="AK38" s="10">
+        <v>6.9699999999999998E-2</v>
+      </c>
+      <c r="AL38" s="10">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="AM38" s="10">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AN38" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AO38" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AP38" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="AQ38" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="AR38" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="AS38" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="AT38" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="AU38" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="AV38" s="10">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="AW38" s="10">
+        <v>0.69850000000000001</v>
+      </c>
+      <c r="AX38" s="10">
+        <v>0.27360000000000001</v>
+      </c>
+      <c r="AY38" s="10">
+        <v>0.71220000000000006</v>
+      </c>
+      <c r="AZ38" s="10">
+        <v>0.6079</v>
+      </c>
+      <c r="BA38" s="10">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="BB38" s="10">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="BC38" s="10">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="BD38" s="10">
+        <v>0.2611</v>
+      </c>
+      <c r="BE38" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="BF38" s="10">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="BG38" s="10">
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="BH38" s="10">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="BI38" s="14">
         <v>4.5400000000000003E-2</v>
       </c>
     </row>
